--- a/Documents/Objects Description.xlsx
+++ b/Documents/Objects Description.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Documents\Push-Penguin-3D\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12345" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Characters</t>
   </si>
@@ -113,13 +118,52 @@
   </si>
   <si>
     <t>https://unity3d.com/learn/tutorials/topics/scripting/interfaces</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Arcon</t>
+  </si>
+  <si>
+    <t>Emmet</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>GamePad</t>
+  </si>
+  <si>
+    <t>KeyboardMouse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +200,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -202,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +286,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +321,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,96 +497,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -541,46 +638,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -588,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -596,7 +693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -604,12 +701,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -623,12 +720,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -642,12 +739,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>

--- a/Documents/Objects Description.xlsx
+++ b/Documents/Objects Description.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Documents\Push-Penguin-3D\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Characters</t>
   </si>
@@ -157,13 +152,22 @@
   </si>
   <si>
     <t>KeyboardMouse</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,10 +290,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +324,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,29 +499,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -527,7 +532,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -535,12 +543,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -548,7 +559,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -556,12 +570,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -569,7 +586,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
@@ -577,7 +597,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -585,7 +608,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -593,12 +619,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="C18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -606,7 +635,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -614,7 +646,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -622,12 +657,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
       <c r="C23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
       <c r="C24" t="s">
         <v>44</v>
       </c>
@@ -638,46 +679,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -685,7 +726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -693,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -701,12 +742,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -720,12 +761,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -739,12 +780,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>30</v>
       </c>

--- a/Documents/Objects Description.xlsx
+++ b/Documents/Objects Description.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -12,179 +12,519 @@
     <sheet name="Enemies" sheetId="3" r:id="rId3"/>
     <sheet name="Template for Items" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+  <si>
+    <t>Group</t>
+  </si>
   <si>
     <t>Characters</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t>Penguin</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t>Enemies</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
+    <t>Jack</t>
+  </si>
+  <si>
     <t>World</t>
   </si>
   <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t>Game Manager</t>
   </si>
   <si>
     <t>Blocks</t>
   </si>
   <si>
+    <t>Christian</t>
+  </si>
+  <si>
     <t>Ice</t>
   </si>
   <si>
+    <t>Zach</t>
+  </si>
+  <si>
     <t>Rock</t>
   </si>
   <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>PickUp Items</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
     <t>Score</t>
   </si>
   <si>
-    <t>Interface</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Menus</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t>PopUp Score</t>
   </si>
   <si>
+    <t>GamePad</t>
+  </si>
+  <si>
+    <t>KeyboardMouse</t>
+  </si>
+  <si>
     <t xml:space="preserve">Item Name </t>
   </si>
   <si>
+    <t>Eg. Penguin/Player</t>
+  </si>
+  <si>
     <t>Describe Role in game</t>
   </si>
   <si>
-    <t>Eg. Penguin/Player</t>
-  </si>
-  <si>
     <t>Text description of role in game</t>
   </si>
   <si>
     <t>Internal Functionality</t>
   </si>
   <si>
+    <t>Text Description</t>
+  </si>
+  <si>
     <t>Eg Turn Left</t>
   </si>
   <si>
+    <t>External Outgoing</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Communication with?</t>
+  </si>
+  <si>
     <t>Eg Push</t>
   </si>
   <si>
-    <t>External Outgoing</t>
-  </si>
-  <si>
     <t>External Incoming</t>
   </si>
   <si>
-    <t>Text Description</t>
-  </si>
-  <si>
-    <t>Parameters</t>
+    <t xml:space="preserve">Return </t>
   </si>
   <si>
     <t>ShouldTurnLeft</t>
   </si>
   <si>
-    <t xml:space="preserve">Return </t>
-  </si>
-  <si>
-    <t>Communication with?</t>
-  </si>
-  <si>
-    <t>Egg</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>PickUp Items</t>
-  </si>
-  <si>
-    <t>Menus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name of InterFace </t>
   </si>
   <si>
     <t>https://unity3d.com/learn/tutorials/topics/scripting/interfaces</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Arcon</t>
-  </si>
-  <si>
-    <t>Emmet</t>
-  </si>
-  <si>
-    <t>Shane</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Zach</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>GamePad</t>
-  </si>
-  <si>
-    <t>KeyboardMouse</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -192,24 +532,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -494,307 +1120,316 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="27.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Documents/Objects Description.xlsx
+++ b/Documents/Objects Description.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Penguin" sheetId="2" r:id="rId2"/>
     <sheet name="Enemies" sheetId="3" r:id="rId3"/>
     <sheet name="Template for Items" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Group</t>
   </si>
@@ -158,19 +159,31 @@
   </si>
   <si>
     <t>https://unity3d.com/learn/tutorials/topics/scripting/interfaces</t>
+  </si>
+  <si>
+    <t>Gant Diagram</t>
+  </si>
+  <si>
+    <t>Job Number</t>
+  </si>
+  <si>
+    <t>Week Number</t>
+  </si>
+  <si>
+    <t>Job Description</t>
+  </si>
+  <si>
+    <t>Week start</t>
+  </si>
+  <si>
+    <t>Entire Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,159 +191,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,192 +201,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -532,306 +214,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1120,29 +522,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
+    <row r="2" spans="1:3">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3">
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="1:3">
       <c r="C18" t="s">
         <v>22</v>
       </c>
@@ -1300,30 +702,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1332,27 +728,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="27.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1360,7 +754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1368,7 +762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1376,7 +770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1395,7 +789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1414,12 +808,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1428,8 +822,176 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="17" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42989</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2+7</f>
+        <v>42996</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:Q2" si="0">D2+7</f>
+        <v>43003</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" si="0"/>
+        <v>43010</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" si="0"/>
+        <v>43017</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" si="0"/>
+        <v>43024</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" si="0"/>
+        <v>43031</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" si="0"/>
+        <v>43038</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" si="0"/>
+        <v>43045</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" si="0"/>
+        <v>43052</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" si="0"/>
+        <v>43059</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" si="0"/>
+        <v>43066</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" si="0"/>
+        <v>43073</v>
+      </c>
+      <c r="P2" s="2">
+        <f t="shared" si="0"/>
+        <v>43080</v>
+      </c>
+      <c r="Q2" s="2">
+        <f t="shared" si="0"/>
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>